--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="435" yWindow="3840" windowWidth="16890" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="166">
   <si>
     <t>Rolle</t>
   </si>
@@ -502,6 +502,18 @@
   </si>
   <si>
     <t>Mitarbeiter anlegen, der bereits angelegt ist</t>
+  </si>
+  <si>
+    <t>Testdatum</t>
+  </si>
+  <si>
+    <t>Summierte Ergenisse Gesamtbereich</t>
+  </si>
+  <si>
+    <t>Button "Drucken" anklicken</t>
+  </si>
+  <si>
+    <t>Tabelle wird als PDF erstellt / gedruckt</t>
   </si>
 </sst>
 </file>
@@ -861,11 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -877,7 +889,7 @@
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -893,8 +905,11 @@
       <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -908,7 +923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -925,7 +940,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -940,7 +955,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -955,7 +970,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -972,7 +987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1019,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="90">
+    <row r="13" spans="1:6" ht="90">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="90">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2266,13 +2281,27 @@
       <c r="A93" t="s">
         <v>4</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -249,9 +249,6 @@
     <t>Hilfe wird angezeigt</t>
   </si>
   <si>
-    <t>beliebige Bezeichnung auswählen und "Löschen" drücken. In dem Popup-Fenster mit "Löschen" bestätigen</t>
-  </si>
-  <si>
     <t>Art wurde gelöscht</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>Tabelle wird als PDF erstellt / gedruckt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beliebige Bezeichnung auswählen und "Löschen" drücken. </t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -906,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -923,7 +923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -931,13 +931,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75">
@@ -948,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
@@ -995,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -1033,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -1075,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>76</v>
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>51</v>
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>51</v>
@@ -1123,10 +1123,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -1137,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
@@ -1151,10 +1151,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75">
@@ -1165,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75">
@@ -1179,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
@@ -1196,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>76</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>52</v>
@@ -1224,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>58</v>
@@ -1238,10 +1238,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75">
@@ -1252,13 +1252,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -1269,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>58</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>76</v>
@@ -1297,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60">
@@ -1311,10 +1311,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60">
@@ -1325,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="60">
@@ -1339,10 +1339,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30">
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -1367,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -1381,10 +1381,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>58</v>
@@ -1409,10 +1409,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="105">
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45">
@@ -1440,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>58</v>
@@ -1468,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60">
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>58</v>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>76</v>
@@ -1513,10 +1513,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60">
@@ -1527,10 +1527,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45">
@@ -1541,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45">
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>51</v>
@@ -1569,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>58</v>
@@ -1583,13 +1583,13 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>58</v>
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -1922,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="75">
@@ -2111,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30">
@@ -2125,10 +2125,10 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="45">
@@ -2139,13 +2139,13 @@
         <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30">
@@ -2156,10 +2156,10 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30">
@@ -2184,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" t="s">
         <v>76</v>
@@ -2198,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="90">
@@ -2212,10 +2212,10 @@
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="75">
@@ -2226,13 +2226,13 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="45">
@@ -2243,10 +2243,10 @@
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="45">
@@ -2257,10 +2257,10 @@
         <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60">
@@ -2271,10 +2271,10 @@
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30">
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30">
@@ -2299,10 +2299,10 @@
         <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="164">
   <si>
     <t>Rolle</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Fehlermeldung in Textbox</t>
   </si>
   <si>
-    <t>In das Feld "Bezeichnung" Telefonate eintragen, dann auf "speichern" drücken. Im Popup Fenster den Button "Abbrechen" wählen</t>
-  </si>
-  <si>
     <t>Rückkehr zur vorherigen Maske</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Zur Überprüfung in der Maske anschließend überprüfen ob die gelöschte Bezeichnung nicht mehr vorhanden ist</t>
   </si>
   <si>
-    <t>beliebige Bezeichnung auswählen und "Löschen" drücken. In dem Popup-Fenster "Abbrechen" anklicken</t>
-  </si>
-  <si>
     <t>beliebigen Bereich auswählen und "löschen" Button anklicken. Im Popup "Speichern" auswählen</t>
   </si>
   <si>
@@ -492,9 +486,6 @@
     <t>Unter Mitarbeiter bearbeiten die Suchfunktion aufrufen. Den gerade geänderten Mitarbeiter aufrufen und überprüfen ob die gemachten Änderungen alle übernommen wurden</t>
   </si>
   <si>
-    <t>In Bezeichnung "Telefonate" eintragen und dann auf den Button speichern drücken. Im Popup nochmal auf "speichern" drücken.</t>
-  </si>
-  <si>
     <t>Überprüfen in der Datenbank</t>
   </si>
   <si>
@@ -514,13 +505,16 @@
   </si>
   <si>
     <t xml:space="preserve">beliebige Bezeichnung auswählen und "Löschen" drücken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Bezeichnung "Telefonate" eintragen und dann auf den Button speichern drücken. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +531,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -579,6 +587,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -873,11 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -906,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -917,60 +939,73 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="75">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F3" s="11">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="8">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -978,62 +1013,65 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="13">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -1041,47 +1079,50 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="90">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1092,13 +1133,10 @@
         <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="90">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1106,13 +1144,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
@@ -1123,13 +1158,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1137,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1151,44 +1186,44 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
+        <v>128</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1196,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1247,8 @@
       <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="75">
@@ -1227,55 +1262,55 @@
         <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
+      <c r="B25" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1283,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1297,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60">
@@ -1314,10 +1349,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1325,13 +1360,13 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1339,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1353,13 +1388,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1367,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -1384,10 +1419,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="105">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1395,103 +1430,103 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="105">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>10</v>
+      <c r="B37" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60">
+    </row>
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
+      <c r="B40" t="s">
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1537,7 @@
         <v>137</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45">
@@ -1513,13 +1548,13 @@
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1527,13 +1562,13 @@
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1541,13 +1576,13 @@
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1558,72 +1593,75 @@
         <v>142</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="165">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="75">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="75">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="165">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="75">
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1631,13 +1669,16 @@
         <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:5" ht="45">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
         <v>51</v>
@@ -1679,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
@@ -1688,7 +1729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="45">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
         <v>51</v>
@@ -1705,7 +1746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="30">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
         <v>51</v>
@@ -1739,7 +1780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -1756,7 +1797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30">
+    <row r="58" spans="1:5" ht="45">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1766,11 +1807,8 @@
       <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" t="s">
-        <v>52</v>
+      <c r="D58" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30">
@@ -1781,13 +1819,10 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="45">
@@ -1798,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1812,13 +1847,13 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1826,41 +1861,47 @@
         <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="165">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="75">
       <c r="A64" t="s">
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="165">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1868,16 +1909,13 @@
         <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="90">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1885,16 +1923,16 @@
         <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30">
+        <v>35</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="75">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1902,13 +1940,13 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="90">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="60">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1916,16 +1954,13 @@
         <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="90">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1933,10 +1968,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60">
@@ -1947,27 +1982,27 @@
         <v>14</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="75">
       <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="60">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1975,24 +2010,27 @@
         <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
       <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30">
@@ -2003,10 +2041,13 @@
         <v>14</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30">
@@ -2017,7 +2058,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>51</v>
@@ -2026,7 +2067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2034,30 +2075,25 @@
         <v>14</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="75">
       <c r="A77" t="s">
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2065,17 +2101,16 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="75">
+    </row>
+    <row r="79" spans="1:5" ht="90">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2083,13 +2118,13 @@
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2097,13 +2132,13 @@
         <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="90">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2114,69 +2149,69 @@
         <v>149</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30">
       <c r="A82" t="s">
         <v>4</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30">
       <c r="A83" t="s">
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30">
       <c r="A84" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>16</v>
+      <c r="B84" t="s">
+        <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30">
+        <v>96</v>
+      </c>
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="60">
       <c r="A85" t="s">
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="90">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2184,13 +2219,13 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="60">
+        <v>99</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="75">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2198,13 +2233,16 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="90">
+        <v>102</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="45">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2212,13 +2250,13 @@
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2226,83 +2264,52 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60">
       <c r="A90" t="s">
         <v>4</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30">
       <c r="A91" t="s">
         <v>4</v>
       </c>
-      <c r="B91" t="s">
-        <v>15</v>
+      <c r="B91" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="60">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30">
       <c r="A92" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>15</v>
+      <c r="B92" t="s">
+        <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30">
-      <c r="A93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30">
-      <c r="A94" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="174">
   <si>
     <t>Rolle</t>
   </si>
@@ -508,13 +508,43 @@
   </si>
   <si>
     <t xml:space="preserve">In Bezeichnung "Telefonate" eintragen und dann auf den Button speichern drücken. </t>
+  </si>
+  <si>
+    <t>Suchen nicht möglich</t>
+  </si>
+  <si>
+    <t>noch nicht möglich</t>
+  </si>
+  <si>
+    <t>Popup nicht vorhanden</t>
+  </si>
+  <si>
+    <t>Bei der Suche im Feld löschen hängt sich das Programm auf</t>
+  </si>
+  <si>
+    <t>Kommentare</t>
+  </si>
+  <si>
+    <t>es wird nach a gesucht, ergebnisse haben keinen zusammenhang zum a</t>
+  </si>
+  <si>
+    <t>kann noch nicht getestet werden</t>
+  </si>
+  <si>
+    <t>Arbeitsgruppe kann ncoh nicht gewählt werden, speichern funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Suchen tut nicht</t>
+  </si>
+  <si>
+    <t>warum soll das nicht möglich sein?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +579,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -576,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -584,9 +621,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,6 +635,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -895,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -909,9 +947,10 @@
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -930,328 +969,360 @@
       <c r="F1" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60">
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="60">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>41562</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:7" ht="90">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:7" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="45">
+      <c r="E6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>41562</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:7" s="13" customFormat="1">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="60">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="90">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="90">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="90">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="90">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G13" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="75">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="G15" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="75">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="G16" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G17" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="120">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="75">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="G19" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="G20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="75">
+      <c r="G21" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1338,11 @@
       <c r="E22" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45">
+      <c r="G22" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1281,22 +1355,26 @@
       <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="G23" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="45">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1388,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45">
+    <row r="30" spans="1:7" ht="45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45">
+    <row r="31" spans="1:7" ht="45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45">
+    <row r="33" spans="1:7" ht="45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1500,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="105">
+    <row r="34" spans="1:7" ht="105">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1517,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45">
+    <row r="35" spans="1:7" ht="45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1453,108 +1531,115 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:7" s="13" customFormat="1">
+      <c r="A36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="60">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="60">
+      <c r="A37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="60">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="60">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="30">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="45">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="60">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="60">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="45">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="45">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1567,8 +1652,11 @@
       <c r="D43" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="30">
+      <c r="G43" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1581,8 +1669,11 @@
       <c r="D44" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="75">
+      <c r="G44" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1598,8 +1689,11 @@
       <c r="E45" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="45">
+      <c r="G45" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1612,39 +1706,46 @@
       <c r="D46" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="165">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="G46" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="165">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="75">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="G47" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="13" customFormat="1" ht="75">
+      <c r="A48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="30">
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1660,8 +1761,11 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="30">
+      <c r="G49" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1677,8 +1781,11 @@
       <c r="E50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="45">
+      <c r="G50" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1694,8 +1801,11 @@
       <c r="E51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="45">
+      <c r="G51" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1711,8 +1821,11 @@
       <c r="E52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="45">
+      <c r="G52" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1728,8 +1841,11 @@
       <c r="E53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +1861,11 @@
       <c r="E54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1762,8 +1881,11 @@
       <c r="E55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="30">
+      <c r="G55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1779,8 +1901,11 @@
       <c r="E56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="30">
+      <c r="G56" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1796,8 +1921,11 @@
       <c r="E57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="45">
+      <c r="G57" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1810,8 +1938,11 @@
       <c r="D58" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="30">
+      <c r="G58" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1824,8 +1955,11 @@
       <c r="D59" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="45">
+      <c r="G59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1838,8 +1972,11 @@
       <c r="D60" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="60">
+      <c r="G60" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1852,22 +1989,26 @@
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="G61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="13" customFormat="1">
+      <c r="A62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="165">
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="165">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1883,8 +2024,11 @@
       <c r="E63" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="75">
+      <c r="G63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1900,22 +2044,26 @@
       <c r="E64" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="G64" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="30">
+      <c r="A65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="90">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="90">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1931,50 +2079,62 @@
       <c r="E66" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="75">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="G66" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="60">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="G67" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="60">
+      <c r="A68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="90">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="G68" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1" ht="90">
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="60">
+      <c r="G69" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1987,8 +2147,11 @@
       <c r="D70" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="75">
+      <c r="G70" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="75">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2001,8 +2164,11 @@
       <c r="D71" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="30">
+      <c r="G71" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2015,8 +2181,11 @@
       <c r="D72" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="30">
+      <c r="G72" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2032,8 +2201,11 @@
       <c r="E73" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30">
+      <c r="G73" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2049,8 +2221,11 @@
       <c r="E74" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="30">
+      <c r="G74" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2066,23 +2241,27 @@
       <c r="E75" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="G75" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="13" customFormat="1">
+      <c r="A76" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="75">
+      <c r="E76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" ht="75">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2095,137 +2274,151 @@
       <c r="D77" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="G77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="13" customFormat="1">
+      <c r="A78" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="90">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" s="13" customFormat="1" ht="90">
+      <c r="A79" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="14" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="30">
-      <c r="A80" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A80" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="14" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="45">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="30">
-      <c r="A82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1" ht="30">
+      <c r="A82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="30">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1" ht="30">
+      <c r="A83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="30">
-      <c r="A84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="60">
-      <c r="A85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="1:7" s="13" customFormat="1" ht="60">
+      <c r="A85" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="90">
-      <c r="A86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1" ht="90">
+      <c r="A86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="75">
+      <c r="G86" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="75">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2241,8 +2434,11 @@
       <c r="E87" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="45">
+      <c r="G87" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2451,11 @@
       <c r="D88" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="45">
+      <c r="G88" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2269,8 +2468,11 @@
       <c r="D89" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="60">
+      <c r="G89" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2283,8 +2485,11 @@
       <c r="D90" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="30">
+      <c r="G90" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2297,20 +2502,24 @@
       <c r="D91" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="30">
-      <c r="A92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="G91" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A92" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="14" t="s">
         <v>154</v>
       </c>
+      <c r="G92" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="183">
   <si>
     <t>Rolle</t>
   </si>
@@ -510,18 +510,9 @@
     <t xml:space="preserve">In Bezeichnung "Telefonate" eintragen und dann auf den Button speichern drücken. </t>
   </si>
   <si>
-    <t>Suchen nicht möglich</t>
-  </si>
-  <si>
-    <t>noch nicht möglich</t>
-  </si>
-  <si>
     <t>Popup nicht vorhanden</t>
   </si>
   <si>
-    <t>Bei der Suche im Feld löschen hängt sich das Programm auf</t>
-  </si>
-  <si>
     <t>Kommentare</t>
   </si>
   <si>
@@ -537,7 +528,43 @@
     <t>Suchen tut nicht</t>
   </si>
   <si>
-    <t>warum soll das nicht möglich sein?</t>
+    <t>nicht notwendig</t>
+  </si>
+  <si>
+    <t>klären mit Anforderer</t>
+  </si>
+  <si>
+    <t>Tabelle ohne Radiobuttons gestaltet</t>
+  </si>
+  <si>
+    <t>oberer wird gelöscht</t>
+  </si>
+  <si>
+    <t>Popup fehlt</t>
+  </si>
+  <si>
+    <t>oberes Ergebnis wird genommen</t>
+  </si>
+  <si>
+    <t>oberster Eintrag wird verwendet</t>
+  </si>
+  <si>
+    <t>RadioButtons wurden entfernt</t>
+  </si>
+  <si>
+    <t>RadioButton nicht vorhanden</t>
+  </si>
+  <si>
+    <t>Popup tut nicht</t>
+  </si>
+  <si>
+    <t>keine rolle darf nicht enthalten sein</t>
+  </si>
+  <si>
+    <t>oberster wird ausgewählt bzw gelöscht</t>
+  </si>
+  <si>
+    <t>Popup</t>
   </si>
 </sst>
 </file>
@@ -561,12 +588,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -582,6 +603,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -621,20 +649,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,7 +967,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
@@ -970,99 +1001,99 @@
         <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="13" customFormat="1">
-      <c r="A2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="60">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>41562</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>41562</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:7" s="12" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="45">
       <c r="A7" s="2" t="s">
@@ -1071,573 +1102,592 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>41562</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>41562</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1">
-      <c r="A9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:7" s="12" customFormat="1">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" ht="60">
-      <c r="A10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="90">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="90">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="90">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="6" t="s">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="75">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="45">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="105">
+      <c r="A34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="45">
+      <c r="A35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="12" customFormat="1">
+      <c r="A36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A37" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="75">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="75">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="30">
-      <c r="A18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="120">
-      <c r="A19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="75">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="30">
-      <c r="A24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="45">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="105">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1">
-      <c r="A36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="60">
-      <c r="A37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="60">
-      <c r="A38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" ht="30">
-      <c r="A39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="60">
-      <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="A43" t="s">
@@ -1653,7 +1703,7 @@
         <v>51</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30">
@@ -1670,80 +1720,80 @@
         <v>57</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="75">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="G45" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="45">
+      <c r="A46" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="165">
-      <c r="A47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="G46" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="165">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" ht="75">
-      <c r="A48" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="G47" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="14"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="A49" t="s">
@@ -1762,7 +1812,7 @@
         <v>52</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30">
@@ -1782,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45">
@@ -1802,7 +1852,7 @@
         <v>52</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45">
@@ -1822,7 +1872,7 @@
         <v>52</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
@@ -1842,7 +1892,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30">
@@ -1862,7 +1912,7 @@
         <v>52</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
@@ -1882,7 +1932,7 @@
         <v>52</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
@@ -1902,7 +1952,7 @@
         <v>52</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30">
@@ -1922,7 +1972,7 @@
         <v>52</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
@@ -1939,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
@@ -1956,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45">
@@ -1973,199 +2023,195 @@
         <v>51</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="60">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A61" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="13" customFormat="1">
-      <c r="A62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="13" t="s">
+      <c r="G61" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="12" customFormat="1">
+      <c r="A62" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" ht="165">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="165">
+      <c r="A63" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="75">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="30">
-      <c r="A65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="G64" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" ht="90">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="75">
-      <c r="A67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="75">
+      <c r="A67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" ht="60">
-      <c r="A68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="G67" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="5" customFormat="1" ht="90">
-      <c r="A69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="G68" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="90">
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="G69" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A70" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="75">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="G70" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A71" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>170</v>
+      <c r="G71" s="15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30">
@@ -2182,344 +2228,334 @@
         <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="13" customFormat="1">
-      <c r="A76" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="13" t="s">
+      <c r="G75" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="12" customFormat="1">
+      <c r="A76" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="1:7" ht="75">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="E76" s="13"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A77" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="13" customFormat="1">
-      <c r="A78" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="G77" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="12" customFormat="1">
+      <c r="A78" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G78" s="14"/>
-    </row>
-    <row r="79" spans="1:7" s="13" customFormat="1" ht="90">
-      <c r="A79" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A79" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:7" s="13" customFormat="1" ht="30">
-      <c r="A80" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="13" t="s">
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A81" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7" s="5" customFormat="1" ht="30">
-      <c r="A82" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" ht="30">
-      <c r="A83" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A83" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" s="13" customFormat="1" ht="30">
-      <c r="A84" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="13" t="s">
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" s="13" customFormat="1" ht="60">
-      <c r="A85" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="13" t="s">
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G85" s="14"/>
-    </row>
-    <row r="86" spans="1:7" s="5" customFormat="1" ht="90">
-      <c r="A86" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A86" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="75">
-      <c r="A87" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="G86" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="45">
-      <c r="A88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="G87" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A88" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="60">
-      <c r="A90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A90" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="G90" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A91" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="13" customFormat="1" ht="30">
-      <c r="A92" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="13" t="s">
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A92" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G92" s="14"/>
+      <c r="G92" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="185">
   <si>
     <t>Rolle</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Alle Felder sind wieder leer</t>
   </si>
   <si>
-    <t>Arbeitsgruppe suchen mit Radio Button versuchen zwei Arbeitsgruppen auszuwählen</t>
-  </si>
-  <si>
     <t>Mitarbeiter mit beliebigen Daten anlegen und dann auf "Speichern" klicken. Im Popup Fenster "Abbrechen" wählen.</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t xml:space="preserve">In Bezeichnung "Telefonate" eintragen und dann auf den Button speichern drücken. </t>
   </si>
   <si>
-    <t>Popup nicht vorhanden</t>
-  </si>
-  <si>
     <t>Kommentare</t>
   </si>
   <si>
@@ -522,9 +516,6 @@
     <t>kann noch nicht getestet werden</t>
   </si>
   <si>
-    <t>Arbeitsgruppe kann ncoh nicht gewählt werden, speichern funktioniert nicht</t>
-  </si>
-  <si>
     <t>Suchen tut nicht</t>
   </si>
   <si>
@@ -565,6 +556,21 @@
   </si>
   <si>
     <t>Popup</t>
+  </si>
+  <si>
+    <t>Warum sollte das nicht erlaubt sein?</t>
+  </si>
+  <si>
+    <t>oberster mitarbeiter wird ausgewählt</t>
+  </si>
+  <si>
+    <t>Falsche Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Sollte erlaubt sein, lediglich der Benutzername darf nicht zweimal vergeben sein</t>
+  </si>
+  <si>
+    <t>Weiterleitung auf die Willkommensseite funktioniert nicht</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -668,6 +674,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -998,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1">
@@ -1012,32 +1023,33 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="60">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="F3" s="16">
         <v>41562</v>
       </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="4" t="s">
@@ -1058,6 +1070,9 @@
       <c r="F4" s="6">
         <v>41562</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="90">
       <c r="A5" s="7" t="s">
@@ -1067,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -1087,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" s="13"/>
@@ -1109,31 +1124,32 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="11">
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="16">
         <v>41562</v>
       </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1">
       <c r="A9" s="12" t="s">
@@ -1143,10 +1159,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -1158,10 +1174,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -1173,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>51</v>
@@ -1182,7 +1198,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" ht="90">
@@ -1193,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>51</v>
@@ -1211,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="G13" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1228,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -1243,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -1258,32 +1274,30 @@
         <v>8</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A18" s="12" t="s">
@@ -1293,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -1308,30 +1322,30 @@
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>166</v>
+      <c r="G20" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1342,51 +1356,47 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="D22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="45">
-      <c r="A23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A24" s="12" t="s">
@@ -1396,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="13"/>
     </row>
@@ -1411,10 +1421,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -1426,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="60">
@@ -1443,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1458,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="G28" s="13"/>
     </row>
@@ -1473,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>57</v>
@@ -1488,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1503,13 +1513,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="30">
@@ -1520,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>57</v>
@@ -1535,51 +1545,47 @@
         <v>10</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="G33" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="105">
+      <c r="A34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="105">
-      <c r="A34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="D34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="45">
-      <c r="A35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" s="12" customFormat="1">
       <c r="A36" s="12" t="s">
@@ -1589,45 +1595,45 @@
         <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="60">
-      <c r="A37" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" ht="60">
-      <c r="A38" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A39" s="12" t="s">
@@ -1637,10 +1643,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -1652,10 +1658,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -1667,117 +1673,111 @@
         <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="45">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="75">
+      <c r="A45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A45" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="45">
-      <c r="A46" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="165">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" s="12" customFormat="1" ht="165">
+      <c r="A47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1791,171 +1791,155 @@
         <v>22</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" ht="30">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="45">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1">
+      <c r="A54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="45">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1963,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -1971,26 +1955,24 @@
       <c r="E57" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="G57" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" t="s">
@@ -2006,59 +1988,58 @@
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="60">
-      <c r="A61" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="14" t="s">
+      <c r="D60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" s="12" customFormat="1">
+      <c r="A61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="12" customFormat="1">
+      <c r="C61" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" s="12" customFormat="1" ht="165">
       <c r="A62" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="165">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A63" s="12" t="s">
         <v>4</v>
       </c>
@@ -2066,17 +2047,19 @@
         <v>14</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="75">
+        <v>32</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A64" s="12" t="s">
         <v>4</v>
       </c>
@@ -2084,34 +2067,32 @@
         <v>14</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A65" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="C65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A66" s="12" t="s">
         <v>4</v>
       </c>
@@ -2119,68 +2100,63 @@
         <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A67" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="C68" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A69" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="C69" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="75">
       <c r="A70" s="14" t="s">
         <v>4</v>
       </c>
@@ -2188,48 +2164,49 @@
         <v>14</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A71" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="C72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A73" s="4" t="s">
@@ -2239,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>51</v>
@@ -2249,25 +2226,27 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="G74" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="12" customFormat="1">
       <c r="A75" s="12" t="s">
         <v>4</v>
       </c>
@@ -2275,52 +2254,47 @@
         <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="12" customFormat="1">
-      <c r="A76" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A77" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="14" t="s">
+      <c r="E75" s="13"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A76" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D76" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="12" customFormat="1">
+      <c r="G76" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="12" customFormat="1">
+      <c r="A77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A78" s="12" t="s">
         <v>4</v>
       </c>
@@ -2328,14 +2302,14 @@
         <v>16</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A79" s="12" t="s">
         <v>4</v>
       </c>
@@ -2346,55 +2320,57 @@
         <v>147</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A80" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="12" t="s">
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="D80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A81" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="C81" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="D81" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A82" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="G82" s="13"/>
     </row>
@@ -2403,17 +2379,17 @@
         <v>4</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A84" s="12" t="s">
         <v>4</v>
       </c>
@@ -2423,12 +2399,12 @@
       <c r="C84" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>75</v>
+      <c r="D84" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A85" s="12" t="s">
         <v>4</v>
       </c>
@@ -2436,49 +2412,49 @@
         <v>15</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" ht="90">
-      <c r="A86" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="13" t="s">
+      <c r="C86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A87" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="D86" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="D87" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A88" s="12" t="s">
@@ -2488,74 +2464,59 @@
         <v>15</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A89" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="60">
-      <c r="A90" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="15" t="s">
+      <c r="D89" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>182</v>
-      </c>
+      <c r="G89" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A90" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A91" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G92" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="187">
   <si>
     <t>Rolle</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>Weiterleitung auf die Willkommensseite funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Mitarbeiter suchen und anschließend auswählen. Dann versuchen nach der Arbeitsgruppe zu suchen</t>
+  </si>
+  <si>
+    <t>Tabelle mit arbeitsgruppen wird angezeigt</t>
   </si>
 </sst>
 </file>
@@ -975,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2208,7 +2214,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
@@ -2216,37 +2222,33 @@
         <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="12" customFormat="1">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A75" s="12" t="s">
         <v>4</v>
       </c>
@@ -2254,47 +2256,52 @@
         <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="12" customFormat="1">
+      <c r="A76" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="14" t="s">
+      <c r="E76" s="13"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A77" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D77" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G77" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1">
-      <c r="A77" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="12" customFormat="1">
       <c r="A78" s="12" t="s">
         <v>4</v>
       </c>
@@ -2302,14 +2309,14 @@
         <v>16</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A79" s="12" t="s">
         <v>4</v>
       </c>
@@ -2317,60 +2324,60 @@
         <v>16</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>135</v>
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A81" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A82" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="G82" s="13"/>
     </row>
@@ -2379,17 +2386,17 @@
         <v>4</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A84" s="12" t="s">
         <v>4</v>
       </c>
@@ -2397,14 +2404,14 @@
         <v>15</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A85" s="12" t="s">
         <v>4</v>
       </c>
@@ -2412,49 +2419,49 @@
         <v>15</v>
       </c>
       <c r="C85" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A86" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D86" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G86" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A86" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="14" t="s">
+    <row r="87" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D87" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E87" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G87" s="15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" ht="45">
-      <c r="A87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A88" s="12" t="s">
@@ -2464,59 +2471,74 @@
         <v>15</v>
       </c>
       <c r="C88" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A89" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D89" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="60">
-      <c r="A89" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="14" t="s">
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A90" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D90" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G90" s="15" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A90" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A91" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A92" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D92" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G91" s="13"/>
+      <c r="G92" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="186">
   <si>
     <t>Rolle</t>
   </si>
@@ -153,12 +153,6 @@
     <t>In der Nachrichtenbox erscheint eine Erfolgsmeldung</t>
   </si>
   <si>
-    <t>Bei einem Mitarbeiter wird ein beliebiges Feld geändert. Man drückt auf Speichern und in dem erschienenen Popup auf "Abbrechen"</t>
-  </si>
-  <si>
-    <t>Man wird auf die vorherige Seite  zurückgeleitet</t>
-  </si>
-  <si>
     <t>Die Suchmaske soll erscheinen</t>
   </si>
   <si>
@@ -534,12 +528,6 @@
     <t>Popup fehlt</t>
   </si>
   <si>
-    <t>oberes Ergebnis wird genommen</t>
-  </si>
-  <si>
-    <t>oberster Eintrag wird verwendet</t>
-  </si>
-  <si>
     <t>RadioButtons wurden entfernt</t>
   </si>
   <si>
@@ -561,9 +549,6 @@
     <t>Warum sollte das nicht erlaubt sein?</t>
   </si>
   <si>
-    <t>oberster mitarbeiter wird ausgewählt</t>
-  </si>
-  <si>
     <t>Falsche Fehlermeldung</t>
   </si>
   <si>
@@ -577,13 +562,25 @@
   </si>
   <si>
     <t>Tabelle mit arbeitsgruppen wird angezeigt</t>
+  </si>
+  <si>
+    <t>Felder müssen wieder geleert werden</t>
+  </si>
+  <si>
+    <t>Feld Bezeichner mit Anforderer klären</t>
+  </si>
+  <si>
+    <t>Abbrechen Button erscheint</t>
+  </si>
+  <si>
+    <t>Fehlermeldung bitte anpassen, sonst keine überprüfung möglich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +623,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -653,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,6 +690,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -981,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1015,10 +1022,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1">
@@ -1029,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1044,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="16">
         <v>41562</v>
@@ -1065,19 +1072,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6">
         <v>41562</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90">
@@ -1088,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -1108,10 +1115,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" s="13"/>
@@ -1130,7 +1137,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F7" s="11">
         <v>41562</v>
@@ -1144,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="16">
         <v>41562</v>
@@ -1165,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -1180,31 +1187,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="90">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>52</v>
+      <c r="C11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" ht="90">
@@ -1215,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="13"/>
     </row>
@@ -1233,29 +1240,29 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A15" s="4" t="s">
@@ -1265,10 +1272,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -1280,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="13"/>
     </row>
@@ -1295,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="G17" s="13"/>
     </row>
@@ -1313,10 +1320,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -1328,13 +1335,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1345,13 +1352,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1362,13 +1369,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1379,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="G22" s="13"/>
     </row>
@@ -1397,10 +1404,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="13"/>
     </row>
@@ -1412,10 +1419,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" s="13"/>
     </row>
@@ -1427,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -1442,29 +1449,27 @@
         <v>10</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="5"/>
+      <c r="C27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A28" s="12" t="s">
@@ -1474,27 +1479,29 @@
         <v>10</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="5"/>
+      <c r="D29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="30" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A30" s="12" t="s">
@@ -1504,10 +1511,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1519,14 +1526,12 @@
         <v>10</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A32" s="4" t="s">
@@ -1536,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -1551,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="12" customFormat="1" ht="105">
@@ -1568,13 +1573,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1586,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -1601,10 +1606,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" s="13"/>
     </row>
@@ -1616,13 +1621,13 @@
         <v>11</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="G37" s="13"/>
     </row>
@@ -1634,10 +1639,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="13"/>
     </row>
@@ -1649,27 +1654,29 @@
         <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="5"/>
+      <c r="C40" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A41" s="4" t="s">
@@ -1679,12 +1686,14 @@
         <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A42" s="12" t="s">
@@ -1694,10 +1703,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G42" s="13"/>
     </row>
@@ -1709,14 +1718,12 @@
         <v>12</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>181</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A44" s="4" t="s">
@@ -1726,10 +1733,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G44" s="5"/>
     </row>
@@ -1741,13 +1748,13 @@
         <v>12</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="G45" s="18"/>
     </row>
@@ -1759,10 +1766,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G46" s="13"/>
     </row>
@@ -1774,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>27</v>
@@ -1783,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1797,11 +1804,11 @@
         <v>22</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
@@ -1809,17 +1816,19 @@
         <v>13</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="30">
+        <v>50</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -1827,15 +1836,17 @@
         <v>13</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="51" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A51" s="4" t="s">
@@ -1845,15 +1856,17 @@
         <v>13</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="52" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A52" s="4" t="s">
@@ -1863,15 +1876,17 @@
         <v>13</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="53" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A53" s="4" t="s">
@@ -1881,17 +1896,19 @@
         <v>13</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" s="4" customFormat="1">
+        <v>50</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -1899,17 +1916,19 @@
         <v>13</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1">
+        <v>50</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -1917,17 +1936,19 @@
         <v>13</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="30">
+        <v>50</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -1935,15 +1956,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" t="s">
@@ -1953,64 +1976,66 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A59" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="20" customFormat="1" ht="60">
+      <c r="A60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D60" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" ht="30">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="61" spans="1:7" s="12" customFormat="1">
       <c r="A61" s="12" t="s">
@@ -2020,10 +2045,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -2062,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="12" customFormat="1" ht="30">
@@ -2076,7 +2101,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G64" s="13"/>
     </row>
@@ -2094,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G65" s="13"/>
     </row>
@@ -2142,7 +2167,7 @@
         <v>31</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="60">
@@ -2159,7 +2184,7 @@
         <v>42</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="14" customFormat="1" ht="75">
@@ -2176,25 +2201,23 @@
         <v>44</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="C71" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A72" s="4" t="s">
@@ -2204,13 +2227,13 @@
         <v>14</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G72" s="5"/>
     </row>
@@ -2222,10 +2245,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E73" s="5"/>
       <c r="G73" s="5"/>
@@ -2238,13 +2261,13 @@
         <v>14</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G74" s="5"/>
     </row>
@@ -2256,16 +2279,16 @@
         <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="12" customFormat="1">
@@ -2276,32 +2299,30 @@
         <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A77" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="14" t="s">
+    <row r="77" spans="1:7" s="12" customFormat="1">
+      <c r="A77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="12" customFormat="1">
+      <c r="C77" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A78" s="12" t="s">
         <v>4</v>
       </c>
@@ -2309,14 +2330,14 @@
         <v>16</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A79" s="12" t="s">
         <v>4</v>
       </c>
@@ -2324,60 +2345,60 @@
         <v>16</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A80" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="12" t="s">
+      <c r="D80" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A81" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="D81" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A82" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="G82" s="13"/>
     </row>
@@ -2386,17 +2407,17 @@
         <v>4</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D83" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A84" s="12" t="s">
         <v>4</v>
       </c>
@@ -2404,14 +2425,14 @@
         <v>15</v>
       </c>
       <c r="C84" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A85" s="12" t="s">
         <v>4</v>
       </c>
@@ -2424,44 +2445,44 @@
       <c r="D85" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" ht="90">
-      <c r="A86" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="12" t="s">
+      <c r="G85" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" ht="75">
+      <c r="A86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="75">
-      <c r="A87" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="E86" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="D87" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A88" s="12" t="s">
@@ -2478,67 +2499,52 @@
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" ht="45">
-      <c r="A89" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="12" t="s">
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="60">
+      <c r="A89" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="60">
-      <c r="A90" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>179</v>
-      </c>
+      <c r="G89" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A90" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A91" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G92" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="185">
   <si>
     <t>Rolle</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Sollte erlaubt sein, lediglich der Benutzername darf nicht zweimal vergeben sein</t>
   </si>
   <si>
-    <t>Weiterleitung auf die Willkommensseite funktioniert nicht</t>
-  </si>
-  <si>
     <t>Mitarbeiter suchen und anschließend auswählen. Dann versuchen nach der Arbeitsgruppe zu suchen</t>
   </si>
   <si>
@@ -570,10 +567,10 @@
     <t>Feld Bezeichner mit Anforderer klären</t>
   </si>
   <si>
-    <t>Abbrechen Button erscheint</t>
-  </si>
-  <si>
     <t>Fehlermeldung bitte anpassen, sonst keine überprüfung möglich</t>
+  </si>
+  <si>
+    <t>nicht verlangt</t>
   </si>
 </sst>
 </file>
@@ -991,8 +988,8 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1500,7 +1497,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1675,25 +1672,23 @@
         <v>133</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A42" s="12" t="s">
@@ -1825,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1845,7 +1840,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1865,7 +1860,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1885,7 +1880,7 @@
         <v>50</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1905,7 +1900,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1925,7 +1920,7 @@
         <v>50</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1945,7 +1940,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="4" customFormat="1" ht="45">
@@ -1965,7 +1960,7 @@
         <v>50</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45">
@@ -2245,10 +2240,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E73" s="5"/>
       <c r="G73" s="5"/>
@@ -2369,7 +2364,7 @@
         <v>148</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="12" customFormat="1" ht="30">

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -988,8 +988,8 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1261,20 +1261,20 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A16" s="12" t="s">

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$G$91</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="185">
   <si>
     <t>Rolle</t>
   </si>
@@ -695,7 +698,16 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -985,11 +997,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1025,7 +1038,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1">
+    <row r="2" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1053,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90">
+    <row r="5" spans="1:7" ht="90" hidden="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1">
+    <row r="6" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1133,7 @@
       <c r="E6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="45" hidden="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1174,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1">
+    <row r="9" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1189,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1204,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1224,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1242,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1259,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1274,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1289,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1304,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1322,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1337,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1406,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A23" s="12" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1421,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1436,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1451,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1466,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="27" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A27" s="12" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1481,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="28" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1496,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="30" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1528,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -1530,22 +1543,22 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A33" s="12" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="105">
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="105" hidden="1">
       <c r="A34" s="12" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1593,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A35" s="12" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1608,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" s="12" customFormat="1">
+    <row r="36" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1623,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="37" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A37" s="12" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1641,7 @@
       </c>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A38" s="12" t="s">
         <v>4</v>
       </c>
@@ -1643,7 +1656,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="39" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
@@ -1658,7 +1671,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="40" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="41" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A41" s="12" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1703,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="42" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A42" s="12" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1718,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="43" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A43" s="12" t="s">
         <v>4</v>
       </c>
@@ -1720,22 +1733,22 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="75">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="75" hidden="1">
       <c r="A45" s="17" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1766,7 @@
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="46" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1781,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:7" s="12" customFormat="1" ht="165">
+    <row r="47" spans="1:7" s="12" customFormat="1" ht="165" hidden="1">
       <c r="A47" s="12" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="48" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A48" s="12" t="s">
         <v>4</v>
       </c>
@@ -1803,167 +1816,167 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="51" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A53" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="55" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A55" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="56" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+      <c r="A56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45">
+    <row r="57" spans="1:7" ht="45" hidden="1">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="58" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A58" s="12" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +2011,7 @@
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="59" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A59" s="12" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2028,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="20" customFormat="1" ht="60">
+    <row r="60" spans="1:7" s="20" customFormat="1" ht="60" hidden="1">
       <c r="A60" s="20" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="12" customFormat="1">
+    <row r="61" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A61" s="12" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2060,7 @@
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" ht="165">
+    <row r="62" spans="1:7" s="12" customFormat="1" ht="165" hidden="1">
       <c r="A62" s="12" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2078,7 @@
       </c>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A63" s="12" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="64" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A64" s="12" t="s">
         <v>4</v>
       </c>
@@ -2100,7 +2113,7 @@
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="65" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
       <c r="A65" s="12" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2131,7 @@
       </c>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="75">
+    <row r="66" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
       <c r="A66" s="12" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2146,7 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="67" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A67" s="12" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2161,7 @@
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="68" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
       <c r="A68" s="12" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2178,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="60">
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="60" hidden="1">
       <c r="A69" s="14" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="75">
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="75" hidden="1">
       <c r="A70" s="14" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2212,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="71" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A71" s="12" t="s">
         <v>4</v>
       </c>
@@ -2214,59 +2227,61 @@
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="72" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="E73" s="13"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="A74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="30">
+      <c r="G74" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A75" s="12" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2301,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1">
+    <row r="76" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A76" s="12" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2317,7 @@
       <c r="E76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1">
+    <row r="77" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A77" s="12" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2332,7 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
       <c r="A78" s="12" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2347,7 @@
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A79" s="12" t="s">
         <v>4</v>
       </c>
@@ -2347,27 +2362,27 @@
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A81" s="12" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2397,7 @@
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="82" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A82" s="12" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2412,7 @@
       </c>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="83" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A83" s="12" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2427,7 @@
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="60">
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
       <c r="A84" s="12" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2442,7 @@
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="90">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
       <c r="A85" s="12" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="75">
+    <row r="86" spans="1:7" s="14" customFormat="1" ht="75" hidden="1">
       <c r="A86" s="14" t="s">
         <v>4</v>
       </c>
@@ -2464,7 +2479,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A87" s="12" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2494,7 @@
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" ht="45">
+    <row r="88" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
       <c r="A88" s="12" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2509,7 @@
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="60">
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="60" hidden="1">
       <c r="A89" s="14" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A90" s="12" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2541,7 @@
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" ht="30">
+    <row r="91" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
       <c r="A91" s="12" t="s">
         <v>4</v>
       </c>
@@ -2542,6 +2557,11 @@
       <c r="G91" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G91">
+    <filterColumn colId="4">
+      <colorFilter dxfId="0" cellColor="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
   <si>
     <t>Rolle</t>
   </si>
@@ -574,6 +574,63 @@
   </si>
   <si>
     <t>nicht verlangt</t>
+  </si>
+  <si>
+    <t>Daten anzeigen</t>
+  </si>
+  <si>
+    <t>Jahresansicht, Gruppe auswählen, nur ein Schritt zurück</t>
+  </si>
+  <si>
+    <t>s.l</t>
+  </si>
+  <si>
+    <t>ohne BL anlegen</t>
+  </si>
+  <si>
+    <t>Tabellen allgemein</t>
+  </si>
+  <si>
+    <t>Doppelklick auf Element</t>
+  </si>
+  <si>
+    <t>Auswahl</t>
+  </si>
+  <si>
+    <t>Mitarbeiter erstellen</t>
+  </si>
+  <si>
+    <t>Felder sollten nach dem erstellen geleert sein</t>
+  </si>
+  <si>
+    <t>Jahr auswählen in dem Keine daten vorhanden sind</t>
+  </si>
+  <si>
+    <t>Fehlermeldung bzw info</t>
+  </si>
+  <si>
+    <t>Drucken</t>
+  </si>
+  <si>
+    <t>Überschrift nur einmal vorhanden</t>
+  </si>
+  <si>
+    <t>Jahresansich mit negativen Zahlen</t>
+  </si>
+  <si>
+    <t>Mitarbeiter zum Bearbeiten auswählen</t>
+  </si>
+  <si>
+    <t>Möglichkeit das Passwort zu ändern</t>
+  </si>
+  <si>
+    <t>Daten erfassen</t>
+  </si>
+  <si>
+    <t>Striche löschen/ Minus button vorhanden</t>
+  </si>
+  <si>
+    <t>Arbeitgruppe leer lassen oder falsch eingeben</t>
   </si>
 </sst>
 </file>
@@ -698,16 +755,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -997,12 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1038,7 +1085,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="2" spans="1:7" s="12" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1100,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1097,7 +1144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" hidden="1">
+    <row r="5" spans="1:7" ht="90">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1164,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="6" spans="1:7" s="12" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1180,7 @@
       <c r="E6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="45" hidden="1">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1200,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1221,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="9" spans="1:7" s="12" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1236,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1251,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1271,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1289,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1321,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1336,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1351,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1369,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1384,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1418,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +1435,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1453,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A23" s="12" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1468,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1483,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1498,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1513,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="27" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A27" s="12" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1528,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="28" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
@@ -1496,7 +1543,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="30" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1575,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1605,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A33" s="12" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1622,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="105" hidden="1">
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="105">
       <c r="A34" s="12" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1640,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A35" s="12" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1655,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="36" spans="1:7" s="12" customFormat="1">
       <c r="A36" s="12" t="s">
         <v>4</v>
       </c>
@@ -1623,7 +1670,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="37" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A37" s="12" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1688,7 @@
       </c>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A38" s="12" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1703,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="39" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1718,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="40" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1735,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="41" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A41" s="12" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1750,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="42" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A42" s="12" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1765,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="43" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A43" s="12" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1795,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="75" hidden="1">
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="75">
       <c r="A45" s="17" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1813,7 @@
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="46" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1828,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:7" s="12" customFormat="1" ht="165" hidden="1">
+    <row r="47" spans="1:7" s="12" customFormat="1" ht="165">
       <c r="A47" s="12" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1848,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="48" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A48" s="12" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1863,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="49" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1883,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="50" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A50" s="12" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="51" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A51" s="12" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="52" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A52" s="12" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1943,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="53" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A53" s="12" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1963,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="54" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A54" s="12" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="55" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A55" s="12" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +2003,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="56" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A56" s="12" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +2023,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" hidden="1">
+    <row r="57" spans="1:7" ht="45">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2043,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="58" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A58" s="12" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2058,7 @@
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="59" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A59" s="12" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2075,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="20" customFormat="1" ht="60" hidden="1">
+    <row r="60" spans="1:7" s="20" customFormat="1" ht="60">
       <c r="A60" s="20" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="61" spans="1:7" s="12" customFormat="1">
       <c r="A61" s="12" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2107,7 @@
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" ht="165" hidden="1">
+    <row r="62" spans="1:7" s="12" customFormat="1" ht="165">
       <c r="A62" s="12" t="s">
         <v>4</v>
       </c>
@@ -2078,7 +2125,7 @@
       </c>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A63" s="12" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="64" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A64" s="12" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2160,7 @@
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
+    <row r="65" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A65" s="12" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +2178,7 @@
       </c>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="75" hidden="1">
+    <row r="66" spans="1:7" s="12" customFormat="1" ht="75">
       <c r="A66" s="12" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2193,7 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="67" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A67" s="12" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2208,7 @@
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
+    <row r="68" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A68" s="12" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2225,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="60" hidden="1">
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="60">
       <c r="A69" s="14" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="75" hidden="1">
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="75">
       <c r="A70" s="14" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="71" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A71" s="12" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2328,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A75" s="12" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="76" spans="1:7" s="12" customFormat="1">
       <c r="A76" s="12" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2364,7 @@
       <c r="E76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" hidden="1">
+    <row r="77" spans="1:7" s="12" customFormat="1">
       <c r="A77" s="12" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2379,7 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
+    <row r="78" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A78" s="12" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2394,7 @@
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A79" s="12" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A81" s="12" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2444,7 @@
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="82" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A82" s="12" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2459,7 @@
       </c>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="83" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A83" s="12" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2474,7 @@
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="60" hidden="1">
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="60">
       <c r="A84" s="12" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2489,7 @@
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="90" hidden="1">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="90">
       <c r="A85" s="12" t="s">
         <v>4</v>
       </c>
@@ -2459,7 +2506,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="75" hidden="1">
+    <row r="86" spans="1:7" s="14" customFormat="1" ht="75">
       <c r="A86" s="14" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2526,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A87" s="12" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2541,7 @@
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" ht="45" hidden="1">
+    <row r="88" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A88" s="12" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2556,7 @@
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="60" hidden="1">
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="60">
       <c r="A89" s="14" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2573,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A90" s="12" t="s">
         <v>4</v>
       </c>
@@ -2541,7 +2588,7 @@
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" ht="30" hidden="1">
+    <row r="91" spans="1:7" s="12" customFormat="1" ht="30">
       <c r="A91" s="12" t="s">
         <v>4</v>
       </c>
@@ -2556,11 +2603,166 @@
       </c>
       <c r="G91" s="13"/>
     </row>
+    <row r="92" spans="1:7" s="20" customFormat="1" ht="45">
+      <c r="A92" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" s="20" customFormat="1">
+      <c r="A93" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" s="20" customFormat="1">
+      <c r="A94" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" s="20" customFormat="1" ht="45">
+      <c r="A95" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" s="20" customFormat="1" ht="30">
+      <c r="A96" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" s="20" customFormat="1" ht="30">
+      <c r="A97" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" s="20" customFormat="1" ht="30">
+      <c r="A98" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" s="20" customFormat="1" ht="30">
+      <c r="A99" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" s="20" customFormat="1" ht="30">
+      <c r="A100" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7" s="20" customFormat="1" ht="30">
+      <c r="A101" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="19"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G91">
-    <filterColumn colId="4">
-      <colorFilter dxfId="0" cellColor="0"/>
-    </filterColumn>
+    <filterColumn colId="4"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="200">
   <si>
     <t>Rolle</t>
   </si>
@@ -180,12 +180,6 @@
     <t>Keine Rolle auswählen</t>
   </si>
   <si>
-    <t>In das Feld "Bezeichnung" eine Nummer eintragen</t>
-  </si>
-  <si>
-    <t>Fehlermeldung in Textbox</t>
-  </si>
-  <si>
     <t>Rückkehr zur vorherigen Maske</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Alle Felder sind wieder leer</t>
   </si>
   <si>
-    <t>Mitarbeiter mit beliebigen Daten anlegen und dann auf "Speichern" klicken. Im Popup Fenster "Abbrechen" wählen.</t>
-  </si>
-  <si>
     <t>Rückkehr auf die vorherige Seite</t>
   </si>
   <si>
@@ -483,9 +474,6 @@
     <t>Überprüfen in der Datenbank</t>
   </si>
   <si>
-    <t>Mitarbeiter anlegen, der bereits angelegt ist</t>
-  </si>
-  <si>
     <t>Testdatum</t>
   </si>
   <si>
@@ -549,15 +537,9 @@
     <t>Popup</t>
   </si>
   <si>
-    <t>Warum sollte das nicht erlaubt sein?</t>
-  </si>
-  <si>
     <t>Falsche Fehlermeldung</t>
   </si>
   <si>
-    <t>Sollte erlaubt sein, lediglich der Benutzername darf nicht zweimal vergeben sein</t>
-  </si>
-  <si>
     <t>Mitarbeiter suchen und anschließend auswählen. Dann versuchen nach der Arbeitsgruppe zu suchen</t>
   </si>
   <si>
@@ -631,6 +613,12 @@
   </si>
   <si>
     <t>Arbeitgruppe leer lassen oder falsch eingeben</t>
+  </si>
+  <si>
+    <t>Mitarbeiter anlegen mit Namen den es bereits gibt, aber Benutzername anders</t>
+  </si>
+  <si>
+    <t>Mitarbeiter mit beliebigen Daten anlegen und dann auf "Speichern" klicken. Im Popup Fenster "Nein" wählen.</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1036,8 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1079,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1">
@@ -1093,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1108,41 +1096,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="16">
         <v>41562</v>
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="6">
-        <v>41562</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>176</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="90">
       <c r="A5" s="7" t="s">
@@ -1152,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -1172,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" s="13"/>
@@ -1194,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="11">
         <v>41562</v>
@@ -1208,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>49</v>
@@ -1229,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -1244,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -1259,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>49</v>
@@ -1268,7 +1241,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" ht="90">
@@ -1279,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>49</v>
@@ -1297,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1314,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -1329,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -1344,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G16" s="13"/>
     </row>
@@ -1359,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G17" s="13"/>
     </row>
@@ -1377,10 +1350,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -1392,13 +1365,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1409,13 +1382,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1426,13 +1399,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1443,13 +1416,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G22" s="13"/>
     </row>
@@ -1461,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G23" s="13"/>
     </row>
@@ -1476,10 +1449,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" s="13"/>
     </row>
@@ -1491,10 +1464,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -1506,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -1521,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G27" s="13"/>
     </row>
@@ -1536,10 +1509,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" s="13"/>
     </row>
@@ -1551,13 +1524,13 @@
         <v>10</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1568,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -1583,10 +1556,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -1598,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" s="13"/>
     </row>
@@ -1613,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="12" customFormat="1" ht="105">
@@ -1630,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -1648,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -1663,10 +1636,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" s="13"/>
     </row>
@@ -1678,13 +1651,13 @@
         <v>11</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" s="13"/>
     </row>
@@ -1696,10 +1669,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G38" s="13"/>
     </row>
@@ -1711,10 +1684,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -1726,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="12" customFormat="1" ht="60">
@@ -1743,10 +1716,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G41" s="13"/>
     </row>
@@ -1758,10 +1731,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G42" s="13"/>
     </row>
@@ -1773,7 +1746,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>49</v>
@@ -1788,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G44" s="13"/>
     </row>
@@ -1803,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G45" s="18"/>
     </row>
@@ -1821,10 +1794,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G46" s="13"/>
     </row>
@@ -1836,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>27</v>
@@ -1845,7 +1818,7 @@
         <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="12" customFormat="1" ht="75">
@@ -1859,7 +1832,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G48" s="13"/>
     </row>
@@ -1871,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>49</v>
@@ -1880,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1900,7 +1873,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1911,7 +1884,7 @@
         <v>13</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>49</v>
@@ -1920,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1931,7 +1904,7 @@
         <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>49</v>
@@ -1940,7 +1913,7 @@
         <v>50</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1951,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>49</v>
@@ -1960,7 +1933,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1980,7 +1953,7 @@
         <v>50</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="12" customFormat="1" ht="45">
@@ -1991,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>49</v>
@@ -2000,7 +1973,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="12" customFormat="1" ht="45">
@@ -2011,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>49</v>
@@ -2020,28 +1993,26 @@
         <v>50</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45">
       <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>178</v>
-      </c>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" s="12" customFormat="1" ht="45">
       <c r="A58" s="12" t="s">
@@ -2051,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G58" s="13"/>
     </row>
@@ -2072,25 +2043,23 @@
         <v>47</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="20" customFormat="1" ht="60">
-      <c r="A60" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>163</v>
-      </c>
+      <c r="C60" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" s="12" customFormat="1">
       <c r="A61" s="12" t="s">
@@ -2100,10 +2069,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -2142,7 +2111,7 @@
         <v>32</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="12" customFormat="1" ht="30">
@@ -2174,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G65" s="13"/>
     </row>
@@ -2222,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="60">
@@ -2239,7 +2208,7 @@
         <v>42</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="14" customFormat="1" ht="75">
@@ -2256,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="12" customFormat="1" ht="30">
@@ -2300,10 +2269,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E73" s="13"/>
       <c r="G73" s="13"/>
@@ -2325,7 +2294,7 @@
         <v>50</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="12" customFormat="1" ht="30">
@@ -2345,7 +2314,7 @@
         <v>50</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="12" customFormat="1">
@@ -2356,10 +2325,10 @@
         <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E76" s="13"/>
       <c r="G76" s="13"/>
@@ -2372,10 +2341,10 @@
         <v>16</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G77" s="13"/>
     </row>
@@ -2387,10 +2356,10 @@
         <v>16</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -2402,10 +2371,10 @@
         <v>16</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G79" s="13"/>
     </row>
@@ -2417,16 +2386,16 @@
         <v>16</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="12" customFormat="1" ht="30">
@@ -2437,10 +2406,10 @@
         <v>16</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -2452,10 +2421,10 @@
         <v>17</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G82" s="13"/>
     </row>
@@ -2467,10 +2436,10 @@
         <v>15</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G83" s="13"/>
     </row>
@@ -2482,10 +2451,10 @@
         <v>15</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -2497,13 +2466,13 @@
         <v>15</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="14" customFormat="1" ht="75">
@@ -2514,16 +2483,16 @@
         <v>15</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="12" customFormat="1" ht="45">
@@ -2534,10 +2503,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G87" s="13"/>
     </row>
@@ -2549,10 +2518,10 @@
         <v>15</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G88" s="13"/>
     </row>
@@ -2564,13 +2533,13 @@
         <v>15</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="12" customFormat="1" ht="30">
@@ -2578,13 +2547,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G90" s="13"/>
     </row>
@@ -2596,10 +2565,10 @@
         <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G91" s="13"/>
     </row>
@@ -2608,13 +2577,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G92" s="19"/>
     </row>
@@ -2626,10 +2595,10 @@
         <v>12</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G93" s="19"/>
     </row>
@@ -2638,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G94" s="19"/>
     </row>
@@ -2653,13 +2622,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G95" s="19"/>
     </row>
@@ -2668,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G96" s="19"/>
     </row>
@@ -2683,13 +2652,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G97" s="19"/>
     </row>
@@ -2698,13 +2667,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G98" s="19"/>
     </row>
@@ -2716,10 +2685,10 @@
         <v>14</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G99" s="19"/>
     </row>
@@ -2728,10 +2697,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G100" s="19"/>
     </row>
@@ -2743,10 +2712,10 @@
         <v>14</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G101" s="19"/>
     </row>

--- a/Testphase/Testfälle_Fachbereichsorganisation.xlsx
+++ b/Testphase/Testfälle_Fachbereichsorganisation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Fallstudie\Testphase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="435" yWindow="3840" windowWidth="16890" windowHeight="3555"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="188">
   <si>
     <t>Rolle</t>
   </si>
@@ -495,12 +500,6 @@
     <t>Kommentare</t>
   </si>
   <si>
-    <t>es wird nach a gesucht, ergebnisse haben keinen zusammenhang zum a</t>
-  </si>
-  <si>
-    <t>kann noch nicht getestet werden</t>
-  </si>
-  <si>
     <t>nicht notwendig</t>
   </si>
   <si>
@@ -513,9 +512,6 @@
     <t>RadioButtons wurden entfernt</t>
   </si>
   <si>
-    <t>RadioButton nicht vorhanden</t>
-  </si>
-  <si>
     <t>keine rolle darf nicht enthalten sein</t>
   </si>
   <si>
@@ -526,9 +522,6 @@
   </si>
   <si>
     <t>Tabelle mit arbeitsgruppen wird angezeigt</t>
-  </si>
-  <si>
-    <t>Fehlermeldung bitte anpassen, sonst keine überprüfung möglich</t>
   </si>
   <si>
     <t>nicht verlangt</t>
@@ -600,18 +593,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,45 +655,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,9 +731,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,9 +765,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,9 +800,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,1985 +976,2021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" s="7" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="8">
         <v>41562</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="90">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="85.5">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="8">
         <v>41562</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="8">
         <v>41567</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="42.75">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>150</v>
       </c>
       <c r="F6" s="8">
         <v>41562</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="8">
         <v>41562</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="8">
         <v>41567</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="8">
         <v>41567</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="8">
         <v>41565</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="85.5">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="8">
         <v>41565</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>79</v>
       </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="8">
         <v>41567</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="8">
         <v>41567</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="8">
         <v>41565</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="8">
         <v>41565</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="8">
         <v>41565</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="8">
         <v>41562</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="8">
         <v>41562</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="G18" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="8">
         <v>41562</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="8">
         <v>41562</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="G20" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>127</v>
       </c>
       <c r="F21" s="8">
         <v>41565</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="8">
         <v>41565</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="8">
         <v>41565</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="8">
         <v>41565</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="8">
         <v>41565</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="8">
         <v>41565</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="8">
         <v>41563</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="8">
         <v>41565</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="8">
         <v>41563</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="8">
         <v>41562</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="8">
         <v>41562</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="8">
         <v>41562</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="105">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="G32" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="85.5">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>120</v>
       </c>
       <c r="F33" s="8">
         <v>41565</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="8">
         <v>41565</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="8">
         <v>41565</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F36" s="8">
         <v>41565</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="8">
         <v>41563</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="8">
         <v>41563</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="8">
         <v>41563</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="8">
         <v>41563</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="8">
         <v>41563</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="8">
         <v>41563</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="8">
         <v>41567</v>
       </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="75">
-      <c r="A44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="6" t="s">
         <v>138</v>
       </c>
       <c r="F44" s="8">
         <v>41565</v>
       </c>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="8">
         <v>41565</v>
       </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="165">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="142.5">
+      <c r="A46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="8">
         <v>41565</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="8">
         <v>41565</v>
       </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="8">
         <v>41565</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="8">
         <v>41565</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="8">
         <v>41565</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="8">
         <v>41565</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="8">
         <v>41565</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" s="7" customFormat="1">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="8">
         <v>41565</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1">
+      <c r="A54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="8">
         <v>41565</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1">
+      <c r="A55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F55" s="8">
         <v>41565</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="42.75">
+      <c r="A56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F56" s="8">
         <v>41565</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="8">
         <v>41565</v>
       </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="8">
         <v>41565</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="60">
-      <c r="A59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="57">
+      <c r="A59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F59" s="8">
         <v>41565</v>
       </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1">
-      <c r="A60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1">
+      <c r="A60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="8">
         <v>41565</v>
       </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" ht="165">
-      <c r="A61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="128.25">
+      <c r="A61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="8">
         <v>41565</v>
       </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="8">
         <v>41565</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="85.5">
+      <c r="A64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" ht="57">
+      <c r="A68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" s="10" customFormat="1" ht="71.25">
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="57">
+      <c r="A72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="D72" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="C73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="C74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1">
+      <c r="A75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" s="6" customFormat="1" ht="60">
-      <c r="A68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" ht="75">
-      <c r="A69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="4" customFormat="1">
-      <c r="A75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="8">
         <v>41565</v>
       </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" s="4" customFormat="1">
-      <c r="A76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1">
+      <c r="A76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E76" s="5"/>
       <c r="F76" s="8">
         <v>41565</v>
       </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="E77" s="5"/>
       <c r="F77" s="8">
         <v>41563</v>
       </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1">
+      <c r="A78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="E78" s="5"/>
       <c r="F78" s="8">
         <v>41563</v>
       </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F79" s="8">
         <v>41565</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="G79" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="8">
         <v>41565</v>
       </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="E81" s="5"/>
       <c r="F81" s="8">
         <v>41565</v>
       </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="8">
         <v>41565</v>
       </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="E83" s="5"/>
       <c r="F83" s="8">
         <v>41564</v>
       </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" s="4" customFormat="1" ht="90">
-      <c r="A84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" s="7" customFormat="1" ht="71.25">
+      <c r="A84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="E84" s="5"/>
       <c r="F84" s="8">
         <v>41565</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="6" customFormat="1" ht="75">
-      <c r="A85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="G84" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="10" customFormat="1" ht="71.25">
+      <c r="A85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F85" s="8">
         <v>41565</v>
       </c>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A86" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="8">
         <v>41565</v>
       </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A87" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" s="7" customFormat="1" ht="42.75">
+      <c r="A87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="8">
         <v>41565</v>
       </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" ht="60">
-      <c r="A88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" s="10" customFormat="1" ht="42.75">
+      <c r="A88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="E88" s="5"/>
       <c r="F88" s="8">
         <v>41565</v>
       </c>
-      <c r="G88" s="7"/>
-    </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="8">
         <v>41565</v>
       </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A90" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="E90" s="5"/>
       <c r="F90" s="8">
         <v>41565</v>
       </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" ht="45">
-      <c r="A91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1" ht="42.75">
+      <c r="A91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1">
+      <c r="A92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1">
+      <c r="A93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D93" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F91" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" s="12" customFormat="1">
-      <c r="A92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="F93" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="C94" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F96" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A97" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" s="12" customFormat="1">
-      <c r="A93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F93" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" s="12" customFormat="1" ht="45">
-      <c r="A94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F94" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A95" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="F97" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="D98" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="F98" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F96" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="F99" s="8">
+        <v>41565</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1" ht="28.5">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F97" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F98" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="F99" s="8">
-        <v>41565</v>
-      </c>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="F100" s="8">
         <v>41565</v>
       </c>
-      <c r="G100" s="11"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="4"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="4"/>
+      <c r="A102" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G90">
-    <filterColumn colId="4"/>
-  </autoFilter>
+  <autoFilter ref="A1:G90"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
